--- a/LowScenario.xlsx
+++ b/LowScenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c69a2147807cf63/Documents/_RE_Forecast/scenarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\OneDrive\Documents\_RE_Forecast\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AD169B86-EFED-45F3-9807-C857ED208BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622AE375-A89B-4A0C-8035-925A753DF7BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07E236-9F05-4151-B7C7-4398311D3783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>Exit Cap</t>
   </si>
@@ -542,12 +542,25 @@
   <si>
     <t>VERIFY THIS</t>
   </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Inflation baseline</t>
+  </si>
+  <si>
+    <t>10 Year baseline</t>
+  </si>
+  <si>
+    <t>Low case</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0.%"/>
     <numFmt numFmtId="166" formatCode="0.00.%"/>
@@ -748,11 +761,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -824,8 +838,10 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1240,13 +1256,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:DB30"/>
+  <dimension ref="A1:DB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,6 +6724,103 @@
       <c r="N30" s="19"/>
       <c r="U30" s="5"/>
     </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="39">
+        <v>2025</v>
+      </c>
+      <c r="E52" s="39">
+        <f>+D52+1</f>
+        <v>2026</v>
+      </c>
+      <c r="F52" s="39">
+        <f t="shared" ref="F52:I52" si="0">+E52+1</f>
+        <v>2027</v>
+      </c>
+      <c r="G52" s="39">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="H52" s="39">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="I52" s="39">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F53" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="G53" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="H53" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I53" s="19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="H54" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="19">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="E55" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="F55" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="G55" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="H55" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="I55" s="19">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
